--- a/도서정보/도서정보-테이블명세.xlsx
+++ b/도서정보/도서정보-테이블명세.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\도서대여 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\도서정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8520" windowHeight="7305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보테이블" sheetId="2" r:id="rId1"/>
-    <sheet name="출판사정보테이블" sheetId="9" r:id="rId2"/>
-    <sheet name="저자정보테이블" sheetId="10" r:id="rId3"/>
+    <sheet name="도서정보테이블 (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="도서-저자테이블" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="85">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,6 +104,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>한글가변문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>PRIMARY KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,6 +124,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>도서정보_V1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -136,14 +144,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>출판사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>역자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발행일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>고정문자열(13)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>한글가변문자열(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>NUMBER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -152,6 +200,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>bk_comp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_trnans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>bk_pages</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -164,6 +232,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>nVARCHAR2(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR2(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -172,183 +252,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서정보_V3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_books_v3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경이력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자칼럼을 2개로 분리하여 저자 데이터의 원자성을 유지하기 위한 설계변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 저자가 3명이상일 경우는 칼럼을 또 추가 변경해야는 문제가 발생할 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_author1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_author2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서-저자정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_book_author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 도서의 저자들의 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서의 ISBN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>저자명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>도서명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정문자열(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정문자열(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_ccode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_acode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_company</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사 정보를 저장할 Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표자명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요장르</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_ceo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_tel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_addr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_genre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_author</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자정보를 저장할 Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요장르</t>
+    <t>고정문자열(13)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -356,27 +340,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>가변문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>au_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>au_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>au_addr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>au_genre</t>
+    <t>ba_isbn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba_author</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -384,23 +352,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>au_tel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(10)</t>
+    <t>tbl_books</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -702,6 +666,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -719,7 +694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +787,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1158,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" topLeftCell="E7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1815,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>14</v>
@@ -1828,7 +1818,7 @@
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="27">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="K2" s="28"/>
       <c r="L2" s="20" t="s">
@@ -1840,7 +1830,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -1863,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -1915,20 +1905,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1940,19 +1930,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1965,19 +1955,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1990,19 +1980,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -2015,16 +2005,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -2038,16 +2028,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -2061,16 +2051,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -2083,10 +2073,18 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -2235,9 +2233,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L21"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2894,7 +2892,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>14</v>
@@ -2907,7 +2905,7 @@
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="27">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="K2" s="28"/>
       <c r="L2" s="20" t="s">
@@ -2919,7 +2917,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -2942,7 +2940,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2994,20 +2992,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3019,19 +3017,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -3044,18 +3042,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3067,18 +3067,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -3090,18 +3092,20 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3113,16 +3117,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -3135,10 +3139,18 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -3150,10 +3162,18 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -3165,10 +3185,18 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -3281,14 +3309,72 @@
       <c r="K21" s="6"/>
       <c r="L21" s="17"/>
     </row>
+    <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="31">
+        <v>44314</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:L4"/>
+  <mergeCells count="9">
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="D25:L25"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3302,10 +3388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L21"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3961,7 +4047,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>14</v>
@@ -3974,7 +4060,7 @@
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="27">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="K2" s="28"/>
       <c r="L2" s="20" t="s">
@@ -3986,7 +4072,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -4009,7 +4095,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -4061,20 +4147,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -4086,23 +4172,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="K7" s="12"/>
       <c r="L7" s="18"/>
     </row>
@@ -4111,18 +4199,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -4133,18 +4223,10 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>90</v>
-      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -4156,18 +4238,10 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>91</v>
-      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -4224,10 +4298,18 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -4340,14 +4422,72 @@
       <c r="K21" s="6"/>
       <c r="L21" s="17"/>
     </row>
+    <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="31">
+        <v>44314</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:L4"/>
+  <mergeCells count="9">
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D25:L25"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
